--- a/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,73</t>
+          <t>2,61; 2,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>2,59; 2,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 2,83</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 2,79</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 2,85</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 2,9</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 2,89</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>2,58; 2,79</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 2,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 2,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 2,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 2,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 2,87</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 2,89</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,74</t>
+          <t>2,67; 2,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,76</t>
+          <t>2,66; 2,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 2,84</t>
+          <t>2,64; 2,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,81</t>
+          <t>2,62; 2,77</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,77</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>2,75</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 2,73</t>
+          <t>2,55; 2,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,9</t>
+          <t>2,54; 2,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 2,74</t>
+          <t>2,51; 2,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,76</t>
+          <t>2,65; 2,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,79</t>
+          <t>2,55; 2,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,88</t>
+          <t>2,73; 2,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 2,97</t>
+          <t>2,6; 2,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 2,74</t>
+          <t>2,62; 2,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,72</t>
+          <t>2,58; 2,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
+          <t>2,65; 2,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 2,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>2,66; 2,85</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,82</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 2,72</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,91</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,32</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 2,65</t>
+          <t>2,47; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,11</t>
+          <t>2,57; 3,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,13</t>
+          <t>2,51; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,63</t>
+          <t>2,74; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 2,64</t>
+          <t>2,31; 2,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,53</t>
+          <t>2,47; 2,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 2,82</t>
+          <t>2,42; 2,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,53</t>
+          <t>2,16; 2,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 2,63</t>
+          <t>2,45; 2,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,84</t>
+          <t>2,59; 3,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,05</t>
+          <t>2,52; 2,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 2,58</t>
+          <t>2,54; 2,84</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,16</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>2,9</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>3,03</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,81</t>
+          <t>2,62; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,36</t>
+          <t>2,57; 2,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,69</t>
+          <t>2,69; 2,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 2,78</t>
+          <t>3,0; 3,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,86</t>
+          <t>2,57; 2,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,09</t>
+          <t>2,82; 3,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 2,95</t>
+          <t>2,74; 2,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,71</t>
+          <t>2,73; 3,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,81</t>
+          <t>2,61; 2,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,18</t>
+          <t>2,71; 2,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 2,8</t>
+          <t>2,75; 2,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 2,72</t>
+          <t>2,91; 3,17</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,45</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>2,68</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>3,26</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,81</t>
+          <t>2,63; 2,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 3,78</t>
+          <t>2,59; 3,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,75</t>
+          <t>2,58; 2,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 2,8</t>
+          <t>3,12; 3,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 2,77</t>
+          <t>2,44; 2,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,42</t>
+          <t>2,37; 2,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 2,72</t>
+          <t>2,49; 2,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,61</t>
+          <t>2,9; 3,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,74</t>
+          <t>2,54; 2,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,46</t>
+          <t>2,48; 2,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,71</t>
+          <t>2,58; 2,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,65</t>
+          <t>3,08; 3,48</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>3,31</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,7</t>
+          <t>3,37; 3,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,74</t>
+          <t>3,11; 3,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 3,73</t>
+          <t>2,76; 3,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 3,77</t>
+          <t>3,04; 3,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,33</t>
+          <t>2,57; 2,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,57</t>
+          <t>2,66; 2,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 2,89</t>
+          <t>1,67; 2,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,9</t>
+          <t>3,0; 3,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 2,95</t>
+          <t>2,83; 2,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 3,55</t>
+          <t>2,83; 3,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,06</t>
+          <t>2,17; 2,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,16</t>
+          <t>3,1; 3,53</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,95</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>2,74</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,69</t>
+          <t>2,68; 2,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>2,74; 3,23</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 2,77</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>2,88; 3,02</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 2,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 2,86</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>2,68; 2,81</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 2,79</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 2,73</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 2,9</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 2,81</t>
-        </is>
-      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 2,7</t>
+          <t>2,75; 2,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 2,69</t>
+          <t>2,64; 2,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 2,94</t>
+          <t>2,76; 3,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,8</t>
+          <t>2,69; 2,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 2,73</t>
+          <t>2,83; 2,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de personas (Tamaño familiar)</t>
+          <t>Número de personas (Tamaño familiar) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,79</t>
+          <t>2,79; 2,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,85</t>
+          <t>2,57; 2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,79</t>
+          <t>2,6; 2,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 2,85</t>
+          <t>2,76; 2,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,9</t>
+          <t>2,66; 2,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,79</t>
+          <t>2,59; 2,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 2,79</t>
+          <t>2,8; 2,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 2,77</t>
+          <t>2,61; 2,76</t>
         </is>
       </c>
     </row>
@@ -796,19 +796,19 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,65</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
           <t>2,77</t>
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,76</t>
+          <t>2,72; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,8</t>
+          <t>2,53; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,89</t>
+          <t>2,66; 2,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 2,74</t>
+          <t>2,62; 2,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,98</t>
+          <t>2,72; 2,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 2,9</t>
+          <t>2,62; 2,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,72</t>
+          <t>2,68; 2,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,84</t>
+          <t>2,66; 2,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,85</t>
+          <t>2,67; 2,85</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 2,62</t>
+          <t>2,6; 2,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,8</t>
+          <t>2,58; 3,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,13</t>
+          <t>2,73; 3,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,56</t>
+          <t>2,36; 2,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 2,92</t>
+          <t>2,46; 2,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,59</t>
+          <t>2,55; 2,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,76</t>
+          <t>2,6; 3,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,84</t>
+          <t>2,55; 2,86</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 2,78</t>
+          <t>2,77; 2,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,81</t>
+          <t>2,56; 2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,37</t>
+          <t>3,0; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,72</t>
+          <t>2,66; 2,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,01</t>
+          <t>2,81; 3,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,1</t>
+          <t>2,72; 3,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,72</t>
+          <t>2,74; 2,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 2,92</t>
+          <t>2,71; 2,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,0</t>
+          <t>2,59; 2,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,75</t>
+          <t>3,15; 3,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,61</t>
+          <t>2,56; 2,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,8</t>
+          <t>2,38; 2,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,42</t>
+          <t>2,91; 3,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,69</t>
+          <t>2,66; 2,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 2,8</t>
+          <t>2,46; 2,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,48</t>
+          <t>3,08; 3,49</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 3,65</t>
+          <t>3,55; 3,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 3,61</t>
+          <t>3,07; 3,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,72</t>
+          <t>3,03; 3,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,78</t>
+          <t>2,67; 2,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,91</t>
+          <t>2,67; 2,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,56</t>
+          <t>3,0; 3,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 2,99</t>
+          <t>2,97; 3,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,05</t>
+          <t>2,83; 3,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,53</t>
+          <t>3,1; 3,51</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 2,76</t>
+          <t>2,84; 2,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,23</t>
+          <t>2,74; 3,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,66</t>
+          <t>2,7; 2,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 2,89</t>
+          <t>2,75; 2,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 2,7</t>
+          <t>2,78; 2,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,07</t>
+          <t>2,76; 3,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">

--- a/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,87</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>2,85</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>2,76</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>2,86</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,57; 2,85</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 2,8</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 2,83</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,79; 2,95</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 2,84</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 2,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 2,8</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>2,68; 2,92</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 2,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 2,89</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>2,76; 2,94</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,91</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 2,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 2,8</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>2,67; 2,84</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 2,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 2,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>2,8; 2,92</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,84</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 2,81</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 2,76</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,82</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>2,77</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>2,76</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,54; 2,85</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 2,91</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 2,78</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,72; 2,93</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 2,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 2,78</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,91</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>2,72; 2,98</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 2,88</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 2,83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,62; 2,83</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 2,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 2,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 2,88</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>2,67; 2,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 2,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 2,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>2,68; 2,83</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,84</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 2,77</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 2,85</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,51</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>2,63</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,22</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>2,63</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,54; 2,86</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 3,1</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 2,77</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2,6; 2,77</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 3,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 2,77</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 3,1</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,5; 2,95</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 2,52</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 2,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>2,36; 2,67</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 2,92</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 2,8</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 2,52</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>2,57; 2,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 2,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 2,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>2,55; 2,71</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 3,7</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 2,73</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 2,86</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,85</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>2,8</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,6; 2,84</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 3,35</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 2,91</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2,77; 2,95</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 2,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 2,91</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 3,35</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>2,8; 3,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 3,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 2,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>2,66; 2,83</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 3,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 2,97</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 3,08</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>2,72; 2,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 3,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 2,91</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>2,74; 2,86</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 2,9</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 2,91</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 3,17</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,84</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>2,67</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>2,73</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,61; 2,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 3,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 2,86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>2,71; 2,98</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 2,99</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 2,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 3,81</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>2,69; 2,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 3,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 2,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>2,56; 2,78</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 2,8</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 2,81</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 3,43</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>2,69; 2,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 3,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 2,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>2,66; 2,82</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 2,81</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 2,8</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 3,49</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>3,68</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>2,78</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>3,06</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>3,12; 3,56</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 3,71</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 3,65</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>3,55; 3,8</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 3,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 3,65</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 3,71</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>2,72; 3,0</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 3,59</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 2,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>2,67; 2,88</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 2,93</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 2,27</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 3,59</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>2,86; 3,1</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 3,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 2,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>2,97; 3,15</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 3,07</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 2,87</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 3,51</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,88</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>2,74</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>2,8</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>2,81</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,7; 2,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 3,02</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 2,77</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>2,84; 2,92</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 3,2</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 2,77</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 3,02</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>2,79; 2,9</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 2,9</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 2,81</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>2,7; 2,78</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 2,86</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 2,81</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 2,9</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>2,76; 2,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 2,93</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 2,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>2,78; 2,84</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 3,06</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 2,77</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 2,93</t>
         </is>
       </c>
     </row>
